--- a/horarios_optimizados-520-push_gap_0.80.xlsx
+++ b/horarios_optimizados-520-push_gap_0.80.xlsx
@@ -646,29 +646,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr"/>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -716,45 +712,21 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -780,11 +752,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -800,9 +768,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y6" s="4" t="inlineStr"/>
       <c r="Z6" s="4" t="inlineStr"/>
     </row>
@@ -812,28 +792,100 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="inlineStr"/>
       <c r="M7" s="4" t="inlineStr"/>
       <c r="N7" s="4" t="inlineStr"/>
-      <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X7" s="4" t="inlineStr"/>
       <c r="Y7" s="4" t="inlineStr"/>
       <c r="Z7" s="4" t="inlineStr"/>
@@ -844,20 +896,48 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -878,47 +958,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P8" s="4" t="inlineStr"/>
+      <c r="Q8" s="4" t="inlineStr"/>
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
       <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U8" s="4" t="inlineStr"/>
+      <c r="V8" s="4" t="inlineStr"/>
+      <c r="W8" s="4" t="inlineStr"/>
+      <c r="X8" s="4" t="inlineStr"/>
       <c r="Y8" s="4" t="inlineStr"/>
       <c r="Z8" s="4" t="inlineStr"/>
     </row>
@@ -934,30 +982,30 @@
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr"/>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -968,7 +1016,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1010,11 +1062,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1035,24 +1083,24 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="4" t="inlineStr"/>
-      <c r="N10" s="4" t="inlineStr"/>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1112,68 +1160,20 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr"/>
       <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
       <c r="P11" s="4" t="inlineStr"/>
       <c r="Q11" s="4" t="inlineStr"/>
       <c r="R11" s="4" t="inlineStr"/>
@@ -1281,19 +1281,67 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O15" s="4" t="inlineStr"/>
       <c r="P15" s="4" t="inlineStr"/>
       <c r="Q15" s="4" t="inlineStr"/>
@@ -1339,16 +1387,8 @@
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
       <c r="N16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1413,55 +1453,35 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr"/>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
       <c r="O17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1507,7 +1527,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr"/>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y17" s="4" t="inlineStr"/>
       <c r="Z17" s="4" t="inlineStr"/>
     </row>
@@ -1552,15 +1576,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I18" s="4" t="inlineStr"/>
       <c r="J18" s="4" t="inlineStr"/>
       <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1601,31 +1625,11 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1636,18 +1640,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1663,15 +1671,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y19" s="4" t="inlineStr"/>
       <c r="Z19" s="4" t="inlineStr"/>
     </row>
@@ -1681,14 +1725,46 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1699,21 +1775,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="4" t="inlineStr"/>
       <c r="P20" s="5" t="inlineStr">
         <is>
@@ -1750,26 +1814,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Z20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
+      <c r="Z20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1782,67 +1830,19 @@
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
       <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
       <c r="T21" s="4" t="inlineStr"/>
       <c r="U21" s="4" t="inlineStr"/>
       <c r="V21" s="4" t="inlineStr"/>
@@ -1951,31 +1951,35 @@
       <c r="D25" s="4" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr"/>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2038,77 +2042,21 @@
       <c r="G26" s="4" t="inlineStr"/>
       <c r="H26" s="4" t="inlineStr"/>
       <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J26" s="4" t="inlineStr"/>
+      <c r="K26" s="4" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
       <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
       <c r="Y26" s="4" t="inlineStr"/>
       <c r="Z26" s="4" t="inlineStr"/>
     </row>
@@ -2118,12 +2066,36 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H27" s="4" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr">
         <is>
@@ -2161,46 +2133,14 @@
         </is>
       </c>
       <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
+      <c r="X27" s="4" t="inlineStr"/>
       <c r="Y27" s="4" t="inlineStr"/>
       <c r="Z27" s="4" t="inlineStr"/>
     </row>
@@ -2217,7 +2157,11 @@
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2233,11 +2177,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M28" s="4" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2283,8 +2223,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y28" s="4" t="inlineStr"/>
       <c r="Z28" s="4" t="inlineStr"/>
     </row>
@@ -2294,10 +2242,26 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2313,24 +2277,24 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr"/>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2371,16 +2335,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W29" s="4" t="inlineStr"/>
+      <c r="X29" s="4" t="inlineStr"/>
       <c r="Y29" s="4" t="inlineStr"/>
       <c r="Z29" s="4" t="inlineStr"/>
     </row>
@@ -2390,31 +2346,11 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2430,27 +2366,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
       <c r="O30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2476,13 +2400,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Z30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2490,20 +2442,68 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G31" s="4" t="inlineStr"/>
       <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr"/>
-      <c r="O31" s="4" t="inlineStr"/>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P31" s="4" t="inlineStr"/>
       <c r="Q31" s="4" t="inlineStr"/>
       <c r="R31" s="4" t="inlineStr"/>
@@ -2611,69 +2611,21 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B35" s="4" t="inlineStr"/>
+      <c r="C35" s="4" t="inlineStr"/>
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="inlineStr"/>
       <c r="H35" s="4" t="inlineStr"/>
       <c r="I35" s="4" t="inlineStr"/>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr"/>
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" s="4" t="inlineStr"/>
+      <c r="O35" s="4" t="inlineStr"/>
+      <c r="P35" s="4" t="inlineStr"/>
       <c r="Q35" s="4" t="inlineStr"/>
       <c r="R35" s="4" t="inlineStr"/>
       <c r="S35" s="4" t="inlineStr"/>
@@ -2721,16 +2673,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr"/>
       <c r="J36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2741,10 +2685,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L36" s="4" t="inlineStr"/>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr"/>
-      <c r="O36" s="4" t="inlineStr"/>
+      <c r="L36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2775,11 +2735,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V36" s="4" t="inlineStr"/>
       <c r="W36" s="4" t="inlineStr"/>
       <c r="X36" s="4" t="inlineStr"/>
       <c r="Y36" s="4" t="inlineStr"/>
@@ -2791,31 +2747,11 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
+      <c r="D37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="inlineStr"/>
       <c r="H37" s="4" t="inlineStr"/>
       <c r="I37" s="4" t="inlineStr"/>
@@ -2850,18 +2786,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
-      <c r="X37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y37" s="4" t="inlineStr"/>
       <c r="Z37" s="4" t="inlineStr"/>
     </row>
@@ -2871,53 +2831,21 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B38" s="4" t="inlineStr"/>
+      <c r="C38" s="4" t="inlineStr"/>
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="4" t="inlineStr"/>
       <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="4" t="inlineStr"/>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2943,13 +2871,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
-      <c r="X38" s="4" t="inlineStr"/>
+      <c r="R38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y38" s="4" t="inlineStr"/>
       <c r="Z38" s="4" t="inlineStr"/>
     </row>
@@ -2959,31 +2915,11 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2994,15 +2930,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="4" t="inlineStr"/>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K39" s="4" t="inlineStr"/>
       <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M39" s="4" t="inlineStr"/>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3048,8 +2988,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y39" s="4" t="inlineStr"/>
       <c r="Z39" s="4" t="inlineStr"/>
     </row>
@@ -3064,16 +3012,8 @@
       <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr"/>
       <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
       <c r="I40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3084,9 +3024,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N40" s="4" t="inlineStr"/>
       <c r="O40" s="5" t="inlineStr">
         <is>
@@ -3160,19 +3112,67 @@
       <c r="D41" s="4" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr"/>
       <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr"/>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="4" t="inlineStr"/>
-      <c r="P41" s="4" t="inlineStr"/>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T41" s="4" t="inlineStr"/>
       <c r="U41" s="4" t="inlineStr"/>
       <c r="V41" s="4" t="inlineStr"/>
@@ -3280,11 +3280,7 @@
       <c r="C45" s="4" t="inlineStr"/>
       <c r="D45" s="4" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3300,20 +3296,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr"/>
-      <c r="K45" s="4" t="inlineStr"/>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L45" s="4" t="inlineStr"/>
       <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr"/>
       <c r="P45" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3368,27 +3364,95 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr"/>
-      <c r="C46" s="4" t="inlineStr"/>
-      <c r="D46" s="4" t="inlineStr"/>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr"/>
-      <c r="K46" s="4" t="inlineStr"/>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L46" s="4" t="inlineStr"/>
       <c r="M46" s="4" t="inlineStr"/>
       <c r="N46" s="4" t="inlineStr"/>
       <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr"/>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr"/>
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W46" s="4" t="inlineStr"/>
       <c r="X46" s="4" t="inlineStr"/>
       <c r="Y46" s="4" t="inlineStr"/>
@@ -3405,80 +3469,24 @@
       <c r="D47" s="4" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr"/>
       <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G47" s="4" t="inlineStr"/>
+      <c r="H47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
+      <c r="K47" s="4" t="inlineStr"/>
       <c r="L47" s="4" t="inlineStr"/>
       <c r="M47" s="4" t="inlineStr"/>
       <c r="N47" s="4" t="inlineStr"/>
       <c r="O47" s="4" t="inlineStr"/>
-      <c r="P47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P47" s="4" t="inlineStr"/>
+      <c r="Q47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr"/>
+      <c r="W47" s="4" t="inlineStr"/>
+      <c r="X47" s="4" t="inlineStr"/>
       <c r="Y47" s="4" t="inlineStr"/>
       <c r="Z47" s="4" t="inlineStr"/>
     </row>
@@ -3496,8 +3504,16 @@
       <c r="G48" s="4" t="inlineStr"/>
       <c r="H48" s="4" t="inlineStr"/>
       <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L48" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3508,11 +3524,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N48" s="4" t="inlineStr"/>
       <c r="O48" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3523,7 +3535,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr"/>
+      <c r="Q48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R48" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3549,16 +3565,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W48" s="4" t="inlineStr"/>
+      <c r="X48" s="4" t="inlineStr"/>
       <c r="Y48" s="4" t="inlineStr"/>
       <c r="Z48" s="4" t="inlineStr"/>
     </row>
@@ -3568,12 +3576,36 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr"/>
-      <c r="C49" s="4" t="inlineStr"/>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H49" s="4" t="inlineStr"/>
       <c r="I49" s="5" t="inlineStr">
         <is>
@@ -3600,57 +3632,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr"/>
+      <c r="N49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O49" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P49" s="4" t="inlineStr"/>
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
+      <c r="W49" s="4" t="inlineStr"/>
+      <c r="X49" s="4" t="inlineStr"/>
       <c r="Y49" s="4" t="inlineStr"/>
       <c r="Z49" s="4" t="inlineStr"/>
     </row>
@@ -3701,7 +3701,11 @@
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr"/>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3747,11 +3751,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U50" s="4" t="inlineStr"/>
       <c r="V50" s="4" t="inlineStr"/>
       <c r="W50" s="4" t="inlineStr"/>
       <c r="X50" s="4" t="inlineStr"/>
@@ -3954,24 +3954,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3992,29 +3992,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -4035,17 +4035,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4066,29 +4078,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4109,17 +4121,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -4128,10 +4140,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4152,26 +4164,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.5</v>
@@ -4195,29 +4207,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4238,17 +4238,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -4279,7 +4291,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4288,10 +4300,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -4312,29 +4324,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -4360,12 +4372,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4398,29 +4410,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -4441,12 +4453,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4456,14 +4468,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -4484,29 +4496,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4527,29 +4527,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -4570,29 +4570,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4613,26 +4601,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I18" t="n">
         <v>0.5</v>
@@ -4656,20 +4644,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4689,26 +4687,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
         <v>1.5</v>
@@ -4732,29 +4730,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4775,17 +4773,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4806,29 +4816,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4854,24 +4852,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4892,29 +4890,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -4935,30 +4933,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4978,29 +4966,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28">
@@ -5021,12 +5009,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5040,10 +5028,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -5064,17 +5052,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -5095,17 +5095,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -5138,17 +5138,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -5169,29 +5181,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5212,22 +5212,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -5255,26 +5255,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
         <v>0.5</v>
@@ -5308,19 +5308,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>9</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
